--- a/GameOct18/survey_ru.xlsx
+++ b/GameOct18/survey_ru.xlsx
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/GameOct18/survey_ru.xlsx
+++ b/GameOct18/survey_ru.xlsx
@@ -203,9 +203,6 @@
     <t>"Мнение каждого достойно уважения вне зависимости от того, подкреплено оно фактами или нет".</t>
   </si>
   <si>
-    <t>Вы чувствуйте себя лучше после того, как пообщались с кем-нибудь".</t>
-  </si>
-  <si>
     <t>"Лучше иметь уважение других, чем власть над ними".</t>
   </si>
   <si>
@@ -213,6 +210,9 @@
   </si>
   <si>
     <t>Представьте себе лестницу, у которой 11 ступенек, пронумерованных от 0 (самая нижняя) до 10. Самая верхняя ступенька символизирует самую лучшую жизнь, а самая нижняя - самую худшую. Как Вы думаете, на какой ступеньке Вы будете находиться через, скажем, пять лет?</t>
+  </si>
+  <si>
+    <t>"Вы чувствуйте себя лучше после того, как пообщались с кем-нибудь".</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="B17" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1159,10 +1159,10 @@
       </c>
       <c r="C51" t="str">
         <f>CONCATENATE($G$43,H51)</f>
-        <v>В какой мере по шкале от 0 до 10 следующее утверждение Вас характеризует (0 - вообще для Вас не характерно; 10 - идеально Вас описывает)?  Вы чувствуйте себя лучше после того, как пообщались с кем-нибудь".</v>
+        <v>В какой мере по шкале от 0 до 10 следующее утверждение Вас характеризует (0 - вообще для Вас не характерно; 10 - идеально Вас описывает)?  "Вы чувствуйте себя лучше после того, как пообщались с кем-нибудь".</v>
       </c>
       <c r="H51" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -1177,7 +1177,7 @@
         <v>В какой мере по шкале от 0 до 10 следующее утверждение Вас характеризует (0 - вообще для Вас не характерно; 10 - идеально Вас описывает)?  "Лучше иметь уважение других, чем власть над ними".</v>
       </c>
       <c r="H52" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -1188,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="C53" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -1199,7 +1199,7 @@
         <v>17</v>
       </c>
       <c r="C54" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
